--- a/Hannes/output.xlsx
+++ b/Hannes/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="C3:E4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,26 +433,40 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3">
-      <c r="C3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>2</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Hue</t>
+        </is>
       </c>
     </row>
-    <row r="4">
-      <c r="C4" t="n">
-        <v>80.70174708472403</v>
-      </c>
-      <c r="D4" t="n">
-        <v>109.4445702204873</v>
-      </c>
-      <c r="E4" t="n">
-        <v>130.718626969528</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>86.87834324477781</v>
+      </c>
+      <c r="B2" t="n">
+        <v>118.4321638824971</v>
+      </c>
+      <c r="C2" t="n">
+        <v>148.4725517736007</v>
+      </c>
+      <c r="D2" t="n">
+        <v>86.87834324477781</v>
       </c>
     </row>
   </sheetData>

--- a/Hannes/output.xlsx
+++ b/Hannes/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,16 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>86.87834324477781</v>
+        <v>32.61333333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>118.4321638824971</v>
+        <v>119.7026666666667</v>
       </c>
       <c r="C2" t="n">
-        <v>148.4725517736007</v>
+        <v>112.7506666666667</v>
       </c>
       <c r="D2" t="n">
-        <v>86.87834324477781</v>
+        <v>32.61333333333334</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>36.01975308641975</v>
+      </c>
+      <c r="B3" t="n">
+        <v>128.2555555555556</v>
+      </c>
+      <c r="C3" t="n">
+        <v>112.4703703703704</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.01975308641975</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>72.53255587949465</v>
+      </c>
+      <c r="B4" t="n">
+        <v>131.2769679300291</v>
+      </c>
+      <c r="C4" t="n">
+        <v>132.1101392938128</v>
+      </c>
+      <c r="D4" t="n">
+        <v>72.53255587949465</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55.51430953042512</v>
+      </c>
+      <c r="B5" t="n">
+        <v>107.3853848291192</v>
+      </c>
+      <c r="C5" t="n">
+        <v>111.1872742428452</v>
+      </c>
+      <c r="D5" t="n">
+        <v>55.51430953042512</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>45.82471264367816</v>
+      </c>
+      <c r="B6" t="n">
+        <v>109.3045977011494</v>
+      </c>
+      <c r="C6" t="n">
+        <v>112.068144499179</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45.82471264367816</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>30.48323170731707</v>
+      </c>
+      <c r="B7" t="n">
+        <v>102.7400914634146</v>
+      </c>
+      <c r="C7" t="n">
+        <v>95.48246951219512</v>
+      </c>
+      <c r="D7" t="n">
+        <v>30.48323170731707</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>79.48260869565217</v>
+      </c>
+      <c r="B8" t="n">
+        <v>125.0295652173913</v>
+      </c>
+      <c r="C8" t="n">
+        <v>118.2202898550725</v>
+      </c>
+      <c r="D8" t="n">
+        <v>79.48260869565217</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>64.55064516129032</v>
+      </c>
+      <c r="B9" t="n">
+        <v>115.048064516129</v>
+      </c>
+      <c r="C9" t="n">
+        <v>109.8422580645161</v>
+      </c>
+      <c r="D9" t="n">
+        <v>64.55064516129032</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66.81827586206897</v>
+      </c>
+      <c r="B10" t="n">
+        <v>118.1893103448276</v>
+      </c>
+      <c r="C10" t="n">
+        <v>113.4786206896552</v>
+      </c>
+      <c r="D10" t="n">
+        <v>66.81827586206897</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>95.23977987421384</v>
+      </c>
+      <c r="B11" t="n">
+        <v>134.479035639413</v>
+      </c>
+      <c r="C11" t="n">
+        <v>125.6758385744235</v>
+      </c>
+      <c r="D11" t="n">
+        <v>95.23977987421384</v>
       </c>
     </row>
   </sheetData>

--- a/Hannes/output.xlsx
+++ b/Hannes/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,142 +457,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>32.61333333333334</v>
+        <v>83.86174734356553</v>
       </c>
       <c r="B2" t="n">
-        <v>119.7026666666667</v>
+        <v>120.9062573789846</v>
       </c>
       <c r="C2" t="n">
-        <v>112.7506666666667</v>
+        <v>144.6703659976387</v>
       </c>
       <c r="D2" t="n">
-        <v>32.61333333333334</v>
+        <v>40.60773317591499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>36.01975308641975</v>
+        <v>79.65860517435321</v>
       </c>
       <c r="B3" t="n">
-        <v>128.2555555555556</v>
+        <v>127.3276340457443</v>
       </c>
       <c r="C3" t="n">
-        <v>112.4703703703704</v>
+        <v>149.430558680165</v>
       </c>
       <c r="D3" t="n">
-        <v>36.01975308641975</v>
+        <v>31.18747656542932</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>72.53255587949465</v>
+        <v>28.33213285314126</v>
       </c>
       <c r="B4" t="n">
-        <v>131.2769679300291</v>
+        <v>81.93077230892357</v>
       </c>
       <c r="C4" t="n">
-        <v>132.1101392938128</v>
+        <v>83.22929171668667</v>
       </c>
       <c r="D4" t="n">
-        <v>72.53255587949465</v>
+        <v>19.30012004801921</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>55.51430953042512</v>
+        <v>55.1705312231628</v>
       </c>
       <c r="B5" t="n">
-        <v>107.3853848291192</v>
+        <v>97.96331738437001</v>
       </c>
       <c r="C5" t="n">
-        <v>111.1872742428452</v>
+        <v>118.6526806526807</v>
       </c>
       <c r="D5" t="n">
-        <v>55.51430953042512</v>
+        <v>24.00417126732916</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45.82471264367816</v>
+        <v>88.54441609977324</v>
       </c>
       <c r="B6" t="n">
-        <v>109.3045977011494</v>
+        <v>117.4391723356009</v>
       </c>
       <c r="C6" t="n">
-        <v>112.068144499179</v>
+        <v>131.6748866213152</v>
       </c>
       <c r="D6" t="n">
-        <v>45.82471264367816</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>30.48323170731707</v>
-      </c>
-      <c r="B7" t="n">
-        <v>102.7400914634146</v>
-      </c>
-      <c r="C7" t="n">
-        <v>95.48246951219512</v>
-      </c>
-      <c r="D7" t="n">
-        <v>30.48323170731707</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>79.48260869565217</v>
-      </c>
-      <c r="B8" t="n">
-        <v>125.0295652173913</v>
-      </c>
-      <c r="C8" t="n">
-        <v>118.2202898550725</v>
-      </c>
-      <c r="D8" t="n">
-        <v>79.48260869565217</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>64.55064516129032</v>
-      </c>
-      <c r="B9" t="n">
-        <v>115.048064516129</v>
-      </c>
-      <c r="C9" t="n">
-        <v>109.8422580645161</v>
-      </c>
-      <c r="D9" t="n">
-        <v>64.55064516129032</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>66.81827586206897</v>
-      </c>
-      <c r="B10" t="n">
-        <v>118.1893103448276</v>
-      </c>
-      <c r="C10" t="n">
-        <v>113.4786206896552</v>
-      </c>
-      <c r="D10" t="n">
-        <v>66.81827586206897</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>95.23977987421384</v>
-      </c>
-      <c r="B11" t="n">
-        <v>134.479035639413</v>
-      </c>
-      <c r="C11" t="n">
-        <v>125.6758385744235</v>
-      </c>
-      <c r="D11" t="n">
-        <v>95.23977987421384</v>
+        <v>48.29875283446712</v>
       </c>
     </row>
   </sheetData>

--- a/Hannes/output.xlsx
+++ b/Hannes/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,76 +455,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>83.86174734356553</v>
-      </c>
-      <c r="B2" t="n">
-        <v>120.9062573789846</v>
-      </c>
-      <c r="C2" t="n">
-        <v>144.6703659976387</v>
-      </c>
-      <c r="D2" t="n">
-        <v>40.60773317591499</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>79.65860517435321</v>
-      </c>
-      <c r="B3" t="n">
-        <v>127.3276340457443</v>
-      </c>
-      <c r="C3" t="n">
-        <v>149.430558680165</v>
-      </c>
-      <c r="D3" t="n">
-        <v>31.18747656542932</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>28.33213285314126</v>
-      </c>
-      <c r="B4" t="n">
-        <v>81.93077230892357</v>
-      </c>
-      <c r="C4" t="n">
-        <v>83.22929171668667</v>
-      </c>
-      <c r="D4" t="n">
-        <v>19.30012004801921</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>55.1705312231628</v>
-      </c>
-      <c r="B5" t="n">
-        <v>97.96331738437001</v>
-      </c>
-      <c r="C5" t="n">
-        <v>118.6526806526807</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.00417126732916</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>88.54441609977324</v>
-      </c>
-      <c r="B6" t="n">
-        <v>117.4391723356009</v>
-      </c>
-      <c r="C6" t="n">
-        <v>131.6748866213152</v>
-      </c>
-      <c r="D6" t="n">
-        <v>48.29875283446712</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Hannes/output.xlsx
+++ b/Hannes/output.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanne\Documents\Studium\Master\1. Semester\Verfahren der künstlichen Intelligenz\KI_Gemuese\Hannes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3FAD69-DA32-4553-85B6-50BC08C2E277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-19310" yWindow="3570" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>contour number</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Hue</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,39 +396,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Hue</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>37.700673226307607</v>
+      </c>
+      <c r="C2">
+        <v>123.3733816675298</v>
+      </c>
+      <c r="D2">
+        <v>68.574313827032626</v>
+      </c>
+      <c r="E2">
+        <v>30.046607975142411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>82</v>
+      </c>
+      <c r="B3">
+        <v>36.332727272727283</v>
+      </c>
+      <c r="C3">
+        <v>163.78454545454551</v>
+      </c>
+      <c r="D3">
+        <v>70.25</v>
+      </c>
+      <c r="E3">
+        <v>39.077272727272728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>46</v>
+      </c>
+      <c r="B4">
+        <v>13.80622009569378</v>
+      </c>
+      <c r="C4">
+        <v>137.22727272727269</v>
+      </c>
+      <c r="D4">
+        <v>50.607655502392348</v>
+      </c>
+      <c r="E4">
+        <v>33.715311004784688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>39</v>
+      </c>
+      <c r="B5">
+        <v>82.259259259259252</v>
+      </c>
+      <c r="C5">
+        <v>198.4814814814815</v>
+      </c>
+      <c r="D5">
+        <v>86.539682539682545</v>
+      </c>
+      <c r="E5">
+        <v>67.841269841269835</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>56</v>
+      </c>
+      <c r="B6">
+        <v>24.47865168539326</v>
+      </c>
+      <c r="C6">
+        <v>144.02471910112359</v>
+      </c>
+      <c r="D6">
+        <v>48.728089887640451</v>
+      </c>
+      <c r="E6">
+        <v>34.022471910112358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7">
+        <v>28.734668335419279</v>
+      </c>
+      <c r="C7">
+        <v>152.85607008760951</v>
+      </c>
+      <c r="D7">
+        <v>71.100125156445557</v>
+      </c>
+      <c r="E7">
+        <v>35.021276595744681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>41</v>
+      </c>
+      <c r="B8">
+        <v>23.943535188216039</v>
+      </c>
+      <c r="C8">
+        <v>139.45171849427169</v>
+      </c>
+      <c r="D8">
+        <v>67.961538461538467</v>
+      </c>
+      <c r="E8">
+        <v>32.005728314238951</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <v>14.907014681892329</v>
+      </c>
+      <c r="C9">
+        <v>130.65905383360521</v>
+      </c>
+      <c r="D9">
+        <v>37.360522022838502</v>
+      </c>
+      <c r="E9">
+        <v>32.704730831973897</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>71</v>
+      </c>
+      <c r="B10">
+        <v>29.19588080631025</v>
+      </c>
+      <c r="C10">
+        <v>139.56792287467141</v>
+      </c>
+      <c r="D10">
+        <v>54.046450482033308</v>
+      </c>
+      <c r="E10">
+        <v>37.843996494303241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>33</v>
+      </c>
+      <c r="B11">
+        <v>15.069444444444439</v>
+      </c>
+      <c r="C11">
+        <v>137.65104166666671</v>
+      </c>
+      <c r="D11">
+        <v>41.0625</v>
+      </c>
+      <c r="E11">
+        <v>34.541666666666657</v>
       </c>
     </row>
   </sheetData>

--- a/Hannes/output.xlsx
+++ b/Hannes/output.xlsx
@@ -1,63 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanne\Documents\Studium\Master\1. Semester\Verfahren der künstlichen Intelligenz\KI_Gemuese\Hannes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3FAD69-DA32-4553-85B6-50BC08C2E277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="3570" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>contour number</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Hue</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -72,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -396,203 +420,514 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>contour number</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Hue</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>extent</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>aspect ratio</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2" t="n">
+        <v>55.97217537942664</v>
+      </c>
+      <c r="C2" t="n">
+        <v>87.02023608768971</v>
+      </c>
+      <c r="D2" t="n">
+        <v>130.0025295109612</v>
+      </c>
+      <c r="E2" t="n">
+        <v>19.02360876897133</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8037749287749287</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>68</v>
+      </c>
+      <c r="B3" t="n">
+        <v>78.53542168674699</v>
+      </c>
+      <c r="C3" t="n">
+        <v>98.73156626506024</v>
+      </c>
+      <c r="D3" t="n">
+        <v>119.5672289156627</v>
+      </c>
+      <c r="E3" t="n">
+        <v>29.44674698795181</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8365568366759605</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.9798043110979695</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>51</v>
+      </c>
+      <c r="B4" t="n">
+        <v>72.76184538653366</v>
+      </c>
+      <c r="C4" t="n">
+        <v>94.23399833748961</v>
+      </c>
+      <c r="D4" t="n">
+        <v>116.1558603491272</v>
+      </c>
+      <c r="E4" t="n">
+        <v>32.98753117206982</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8230146656298062</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.7609605654638364</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31</v>
+      </c>
+      <c r="B5" t="n">
+        <v>61.05109489051095</v>
+      </c>
+      <c r="C5" t="n">
+        <v>109.4880778588808</v>
+      </c>
+      <c r="D5" t="n">
+        <v>149.6525547445256</v>
+      </c>
+      <c r="E5" t="n">
+        <v>22.44525547445255</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.7679481355931976</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.9572653118772351</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>50</v>
+      </c>
+      <c r="B6" t="n">
+        <v>73.32842621801612</v>
+      </c>
+      <c r="C6" t="n">
+        <v>99.36698212407991</v>
+      </c>
+      <c r="D6" t="n">
+        <v>126.6235541535226</v>
+      </c>
+      <c r="E6" t="n">
+        <v>34.71398527865405</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.8457659540788884</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.8281617758491921</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>47</v>
+      </c>
+      <c r="B7" t="n">
+        <v>63.68820098698968</v>
+      </c>
+      <c r="C7" t="n">
+        <v>90.10946612830865</v>
+      </c>
+      <c r="D7" t="n">
+        <v>119.1803499327053</v>
+      </c>
+      <c r="E7" t="n">
+        <v>28.81830417227456</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.8286084263019532</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.8909228667432876</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>45</v>
+      </c>
+      <c r="B8" t="n">
+        <v>56.2289156626506</v>
+      </c>
+      <c r="C8" t="n">
+        <v>93.4718875502008</v>
+      </c>
+      <c r="D8" t="n">
+        <v>128.2791164658635</v>
+      </c>
+      <c r="E8" t="n">
+        <v>15.43975903614458</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7480962718841209</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.9503288904374105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>39</v>
+      </c>
+      <c r="B9" t="n">
+        <v>68.91856348002024</v>
+      </c>
+      <c r="C9" t="n">
+        <v>95.88062721294891</v>
+      </c>
+      <c r="D9" t="n">
+        <v>120.5766312594841</v>
+      </c>
+      <c r="E9" t="n">
+        <v>25.37228123419322</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.8023606849134503</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.9010444984121549</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>53</v>
+      </c>
+      <c r="B10" t="n">
+        <v>55.82264150943396</v>
+      </c>
+      <c r="C10" t="n">
+        <v>98.83396226415094</v>
+      </c>
+      <c r="D10" t="n">
+        <v>136.7811320754717</v>
+      </c>
+      <c r="E10" t="n">
+        <v>15.98867924528302</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7135184364499622</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.5393048054696105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>47</v>
+      </c>
+      <c r="B11" t="n">
+        <v>62.03891891891892</v>
+      </c>
+      <c r="C11" t="n">
+        <v>90.62774774774775</v>
+      </c>
+      <c r="D11" t="n">
+        <v>121.1643243243243</v>
+      </c>
+      <c r="E11" t="n">
+        <v>25.92792792792793</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.8029610039672054</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.9156179139704299</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>44</v>
+      </c>
+      <c r="B12" t="n">
+        <v>62.33818181818182</v>
+      </c>
+      <c r="C12" t="n">
+        <v>105.5327272727273</v>
+      </c>
+      <c r="D12" t="n">
+        <v>143.4260606060606</v>
+      </c>
+      <c r="E12" t="n">
+        <v>19.92848484848485</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.8040600760714582</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.8955460518570856</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34</v>
+      </c>
+      <c r="B13" t="n">
+        <v>66.66874027993779</v>
+      </c>
+      <c r="C13" t="n">
+        <v>99.79237947122861</v>
+      </c>
+      <c r="D13" t="n">
+        <v>145.5793157076205</v>
+      </c>
+      <c r="E13" t="n">
+        <v>23.30637636080871</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.7879878209182318</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.9232923527194</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>43</v>
+      </c>
+      <c r="B14" t="n">
+        <v>64.35125184094257</v>
+      </c>
+      <c r="C14" t="n">
+        <v>92.56038291605302</v>
+      </c>
+      <c r="D14" t="n">
+        <v>119.0412371134021</v>
+      </c>
+      <c r="E14" t="n">
+        <v>24.42341678939617</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.8246113098427236</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.857774332357667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>56</v>
+      </c>
+      <c r="B15" t="n">
+        <v>59.16324381253291</v>
+      </c>
+      <c r="C15" t="n">
+        <v>88.00631911532385</v>
+      </c>
+      <c r="D15" t="n">
+        <v>118.7783043707214</v>
+      </c>
+      <c r="E15" t="n">
+        <v>22.13164823591364</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7400795639284019</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8691773704721384</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>33</v>
+      </c>
+      <c r="B16" t="n">
+        <v>73.05885363357216</v>
+      </c>
+      <c r="C16" t="n">
+        <v>113.1663254861822</v>
+      </c>
+      <c r="D16" t="n">
+        <v>145.3372569089048</v>
+      </c>
+      <c r="E16" t="n">
+        <v>23.38792221084954</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.8005115089514067</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.9019607843137255</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>32</v>
+      </c>
+      <c r="B17" t="n">
+        <v>81.16856256463288</v>
+      </c>
+      <c r="C17" t="n">
+        <v>122.9953464322647</v>
+      </c>
+      <c r="D17" t="n">
+        <v>147.2967942088935</v>
+      </c>
+      <c r="E17" t="n">
+        <v>29.74095139607032</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.7593826314214379</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.833055603725426</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
         <v>37</v>
       </c>
-      <c r="B2">
-        <v>37.700673226307607</v>
-      </c>
-      <c r="C2">
-        <v>123.3733816675298</v>
-      </c>
-      <c r="D2">
-        <v>68.574313827032626</v>
-      </c>
-      <c r="E2">
-        <v>30.046607975142411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>82</v>
-      </c>
-      <c r="B3">
-        <v>36.332727272727283</v>
-      </c>
-      <c r="C3">
-        <v>163.78454545454551</v>
-      </c>
-      <c r="D3">
-        <v>70.25</v>
-      </c>
-      <c r="E3">
-        <v>39.077272727272728</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>46</v>
-      </c>
-      <c r="B4">
-        <v>13.80622009569378</v>
-      </c>
-      <c r="C4">
-        <v>137.22727272727269</v>
-      </c>
-      <c r="D4">
-        <v>50.607655502392348</v>
-      </c>
-      <c r="E4">
-        <v>33.715311004784688</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>82.259259259259252</v>
-      </c>
-      <c r="C5">
-        <v>198.4814814814815</v>
-      </c>
-      <c r="D5">
-        <v>86.539682539682545</v>
-      </c>
-      <c r="E5">
-        <v>67.841269841269835</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>56</v>
-      </c>
-      <c r="B6">
-        <v>24.47865168539326</v>
-      </c>
-      <c r="C6">
-        <v>144.02471910112359</v>
-      </c>
-      <c r="D6">
-        <v>48.728089887640451</v>
-      </c>
-      <c r="E6">
-        <v>34.022471910112358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="B18" t="n">
+        <v>78.39441692931112</v>
+      </c>
+      <c r="C18" t="n">
+        <v>107.4619540747411</v>
+      </c>
+      <c r="D18" t="n">
+        <v>129.0459252588924</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30.69428185502026</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.8453928413376056</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.8291809112651818</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
         <v>30</v>
       </c>
-      <c r="B7">
-        <v>28.734668335419279</v>
-      </c>
-      <c r="C7">
-        <v>152.85607008760951</v>
-      </c>
-      <c r="D7">
-        <v>71.100125156445557</v>
-      </c>
-      <c r="E7">
-        <v>35.021276595744681</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>41</v>
-      </c>
-      <c r="B8">
-        <v>23.943535188216039</v>
-      </c>
-      <c r="C8">
-        <v>139.45171849427169</v>
-      </c>
-      <c r="D8">
-        <v>67.961538461538467</v>
-      </c>
-      <c r="E8">
-        <v>32.005728314238951</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>39</v>
-      </c>
-      <c r="B9">
-        <v>14.907014681892329</v>
-      </c>
-      <c r="C9">
-        <v>130.65905383360521</v>
-      </c>
-      <c r="D9">
-        <v>37.360522022838502</v>
-      </c>
-      <c r="E9">
-        <v>32.704730831973897</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>71</v>
-      </c>
-      <c r="B10">
-        <v>29.19588080631025</v>
-      </c>
-      <c r="C10">
-        <v>139.56792287467141</v>
-      </c>
-      <c r="D10">
-        <v>54.046450482033308</v>
-      </c>
-      <c r="E10">
-        <v>37.843996494303241</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>33</v>
-      </c>
-      <c r="B11">
-        <v>15.069444444444439</v>
-      </c>
-      <c r="C11">
-        <v>137.65104166666671</v>
-      </c>
-      <c r="D11">
-        <v>41.0625</v>
-      </c>
-      <c r="E11">
-        <v>34.541666666666657</v>
+      <c r="B19" t="n">
+        <v>60.71462829736211</v>
+      </c>
+      <c r="C19" t="n">
+        <v>108.0599520383693</v>
+      </c>
+      <c r="D19" t="n">
+        <v>151.6163069544365</v>
+      </c>
+      <c r="E19" t="n">
+        <v>15.51318944844125</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.7024204832783029</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.4850712500726659</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>32</v>
+      </c>
+      <c r="B20" t="n">
+        <v>62.14037774374681</v>
+      </c>
+      <c r="C20" t="n">
+        <v>97.80653394589076</v>
+      </c>
+      <c r="D20" t="n">
+        <v>130.6202143950995</v>
+      </c>
+      <c r="E20" t="n">
+        <v>20.35732516590097</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.8211153593363602</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9803712170373097</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>27</v>
+      </c>
+      <c r="B21" t="n">
+        <v>54.04236006051437</v>
+      </c>
+      <c r="C21" t="n">
+        <v>104.1906202723147</v>
+      </c>
+      <c r="D21" t="n">
+        <v>152.1573373676248</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15.10741301059002</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.7339155699215344</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.744034438282172</v>
       </c>
     </row>
   </sheetData>

--- a/Hannes/output.xlsx
+++ b/Hannes/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,495 +439,105 @@
           <t>contour number</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Blue</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Green</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Red</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Hue</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>extent</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>aspect ratio</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>28</v>
       </c>
-      <c r="B2" t="n">
-        <v>55.97217537942664</v>
-      </c>
-      <c r="C2" t="n">
-        <v>87.02023608768971</v>
-      </c>
-      <c r="D2" t="n">
-        <v>130.0025295109612</v>
-      </c>
-      <c r="E2" t="n">
-        <v>19.02360876897133</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.8037749287749287</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9230769230769231</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>68</v>
       </c>
-      <c r="B3" t="n">
-        <v>78.53542168674699</v>
-      </c>
-      <c r="C3" t="n">
-        <v>98.73156626506024</v>
-      </c>
-      <c r="D3" t="n">
-        <v>119.5672289156627</v>
-      </c>
-      <c r="E3" t="n">
-        <v>29.44674698795181</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.8365568366759605</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9798043110979695</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>51</v>
       </c>
-      <c r="B4" t="n">
-        <v>72.76184538653366</v>
-      </c>
-      <c r="C4" t="n">
-        <v>94.23399833748961</v>
-      </c>
-      <c r="D4" t="n">
-        <v>116.1558603491272</v>
-      </c>
-      <c r="E4" t="n">
-        <v>32.98753117206982</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.8230146656298062</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.7609605654638364</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>31</v>
       </c>
-      <c r="B5" t="n">
-        <v>61.05109489051095</v>
-      </c>
-      <c r="C5" t="n">
-        <v>109.4880778588808</v>
-      </c>
-      <c r="D5" t="n">
-        <v>149.6525547445256</v>
-      </c>
-      <c r="E5" t="n">
-        <v>22.44525547445255</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.7679481355931976</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.9572653118772351</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>50</v>
       </c>
-      <c r="B6" t="n">
-        <v>73.32842621801612</v>
-      </c>
-      <c r="C6" t="n">
-        <v>99.36698212407991</v>
-      </c>
-      <c r="D6" t="n">
-        <v>126.6235541535226</v>
-      </c>
-      <c r="E6" t="n">
-        <v>34.71398527865405</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.8457659540788884</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.8281617758491921</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>47</v>
       </c>
-      <c r="B7" t="n">
-        <v>63.68820098698968</v>
-      </c>
-      <c r="C7" t="n">
-        <v>90.10946612830865</v>
-      </c>
-      <c r="D7" t="n">
-        <v>119.1803499327053</v>
-      </c>
-      <c r="E7" t="n">
-        <v>28.81830417227456</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.8286084263019532</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8909228667432876</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>45</v>
       </c>
-      <c r="B8" t="n">
-        <v>56.2289156626506</v>
-      </c>
-      <c r="C8" t="n">
-        <v>93.4718875502008</v>
-      </c>
-      <c r="D8" t="n">
-        <v>128.2791164658635</v>
-      </c>
-      <c r="E8" t="n">
-        <v>15.43975903614458</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.7480962718841209</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.9503288904374105</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>39</v>
       </c>
-      <c r="B9" t="n">
-        <v>68.91856348002024</v>
-      </c>
-      <c r="C9" t="n">
-        <v>95.88062721294891</v>
-      </c>
-      <c r="D9" t="n">
-        <v>120.5766312594841</v>
-      </c>
-      <c r="E9" t="n">
-        <v>25.37228123419322</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.8023606849134503</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.9010444984121549</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>53</v>
       </c>
-      <c r="B10" t="n">
-        <v>55.82264150943396</v>
-      </c>
-      <c r="C10" t="n">
-        <v>98.83396226415094</v>
-      </c>
-      <c r="D10" t="n">
-        <v>136.7811320754717</v>
-      </c>
-      <c r="E10" t="n">
-        <v>15.98867924528302</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.7135184364499622</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.5393048054696105</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>47</v>
       </c>
-      <c r="B11" t="n">
-        <v>62.03891891891892</v>
-      </c>
-      <c r="C11" t="n">
-        <v>90.62774774774775</v>
-      </c>
-      <c r="D11" t="n">
-        <v>121.1643243243243</v>
-      </c>
-      <c r="E11" t="n">
-        <v>25.92792792792793</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.8029610039672054</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.9156179139704299</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>44</v>
       </c>
-      <c r="B12" t="n">
-        <v>62.33818181818182</v>
-      </c>
-      <c r="C12" t="n">
-        <v>105.5327272727273</v>
-      </c>
-      <c r="D12" t="n">
-        <v>143.4260606060606</v>
-      </c>
-      <c r="E12" t="n">
-        <v>19.92848484848485</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.8040600760714582</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.8955460518570856</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>34</v>
       </c>
-      <c r="B13" t="n">
-        <v>66.66874027993779</v>
-      </c>
-      <c r="C13" t="n">
-        <v>99.79237947122861</v>
-      </c>
-      <c r="D13" t="n">
-        <v>145.5793157076205</v>
-      </c>
-      <c r="E13" t="n">
-        <v>23.30637636080871</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.7879878209182318</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.9232923527194</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>43</v>
       </c>
-      <c r="B14" t="n">
-        <v>64.35125184094257</v>
-      </c>
-      <c r="C14" t="n">
-        <v>92.56038291605302</v>
-      </c>
-      <c r="D14" t="n">
-        <v>119.0412371134021</v>
-      </c>
-      <c r="E14" t="n">
-        <v>24.42341678939617</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.8246113098427236</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.857774332357667</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>56</v>
       </c>
-      <c r="B15" t="n">
-        <v>59.16324381253291</v>
-      </c>
-      <c r="C15" t="n">
-        <v>88.00631911532385</v>
-      </c>
-      <c r="D15" t="n">
-        <v>118.7783043707214</v>
-      </c>
-      <c r="E15" t="n">
-        <v>22.13164823591364</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0.7400795639284019</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.8691773704721384</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>33</v>
       </c>
-      <c r="B16" t="n">
-        <v>73.05885363357216</v>
-      </c>
-      <c r="C16" t="n">
-        <v>113.1663254861822</v>
-      </c>
-      <c r="D16" t="n">
-        <v>145.3372569089048</v>
-      </c>
-      <c r="E16" t="n">
-        <v>23.38792221084954</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.8005115089514067</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.9019607843137255</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>32</v>
       </c>
-      <c r="B17" t="n">
-        <v>81.16856256463288</v>
-      </c>
-      <c r="C17" t="n">
-        <v>122.9953464322647</v>
-      </c>
-      <c r="D17" t="n">
-        <v>147.2967942088935</v>
-      </c>
-      <c r="E17" t="n">
-        <v>29.74095139607032</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.7593826314214379</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.833055603725426</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>37</v>
       </c>
-      <c r="B18" t="n">
-        <v>78.39441692931112</v>
-      </c>
-      <c r="C18" t="n">
-        <v>107.4619540747411</v>
-      </c>
-      <c r="D18" t="n">
-        <v>129.0459252588924</v>
-      </c>
-      <c r="E18" t="n">
-        <v>30.69428185502026</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.8453928413376056</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.8291809112651818</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>30</v>
       </c>
-      <c r="B19" t="n">
-        <v>60.71462829736211</v>
-      </c>
-      <c r="C19" t="n">
-        <v>108.0599520383693</v>
-      </c>
-      <c r="D19" t="n">
-        <v>151.6163069544365</v>
-      </c>
-      <c r="E19" t="n">
-        <v>15.51318944844125</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.7024204832783029</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.4850712500726659</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32</v>
       </c>
-      <c r="B20" t="n">
-        <v>62.14037774374681</v>
-      </c>
-      <c r="C20" t="n">
-        <v>97.80653394589076</v>
-      </c>
-      <c r="D20" t="n">
-        <v>130.6202143950995</v>
-      </c>
-      <c r="E20" t="n">
-        <v>20.35732516590097</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.8211153593363602</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.9803712170373097</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>27</v>
-      </c>
-      <c r="B21" t="n">
-        <v>54.04236006051437</v>
-      </c>
-      <c r="C21" t="n">
-        <v>104.1906202723147</v>
-      </c>
-      <c r="D21" t="n">
-        <v>152.1573373676248</v>
-      </c>
-      <c r="E21" t="n">
-        <v>15.10741301059002</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.7339155699215344</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.744034438282172</v>
       </c>
     </row>
   </sheetData>

--- a/Hannes/output.xlsx
+++ b/Hannes/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,105 +439,495 @@
           <t>contour number</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>aspect ratio</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>extent</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Blue</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Green</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Hue</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28</v>
+        <v>65</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1719789131198317</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8982768326077035</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.20517301642782</v>
+      </c>
+      <c r="E2" t="n">
+        <v>87.63998601887452</v>
+      </c>
+      <c r="F2" t="n">
+        <v>111.1006641034603</v>
+      </c>
+      <c r="G2" t="n">
+        <v>15.91261796574624</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1827491780715877</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8435412556136059</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.04604726976365</v>
+      </c>
+      <c r="E3" t="n">
+        <v>89.2322738386308</v>
+      </c>
+      <c r="F3" t="n">
+        <v>113.4099429502852</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.28198859005705</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>51</v>
+        <v>55</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2001229539807216</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8239227184043145</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.64510412051396</v>
+      </c>
+      <c r="E4" t="n">
+        <v>89.1856446610545</v>
+      </c>
+      <c r="F4" t="n">
+        <v>111.1789986708019</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18.83473637571998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>31</v>
+        <v>57</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1724024047621364</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8603092840105619</v>
+      </c>
+      <c r="D5" t="n">
+        <v>29.96866230121609</v>
+      </c>
+      <c r="E5" t="n">
+        <v>83.80308699719365</v>
+      </c>
+      <c r="F5" t="n">
+        <v>106.6721234798877</v>
+      </c>
+      <c r="G5" t="n">
+        <v>18.93592142188962</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50</v>
+        <v>56</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1709531994201213</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8511780904461099</v>
+      </c>
+      <c r="D6" t="n">
+        <v>28.61282771535581</v>
+      </c>
+      <c r="E6" t="n">
+        <v>88.08192883895131</v>
+      </c>
+      <c r="F6" t="n">
+        <v>106.3909176029963</v>
+      </c>
+      <c r="G6" t="n">
+        <v>16.80571161048689</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>47</v>
+        <v>52</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1705332642443037</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8710008561078881</v>
+      </c>
+      <c r="D7" t="n">
+        <v>34.12296650717703</v>
+      </c>
+      <c r="E7" t="n">
+        <v>90.38612440191388</v>
+      </c>
+      <c r="F7" t="n">
+        <v>111.6253588516746</v>
+      </c>
+      <c r="G7" t="n">
+        <v>15.99760765550239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>45</v>
+        <v>54</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1765076877759789</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8434846771593958</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28.2516156828953</v>
+      </c>
+      <c r="E8" t="n">
+        <v>89.32701421800948</v>
+      </c>
+      <c r="F8" t="n">
+        <v>112.2856527358897</v>
+      </c>
+      <c r="G8" t="n">
+        <v>17.57690650581646</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39</v>
+        <v>61</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1645684068006661</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8994874721960268</v>
+      </c>
+      <c r="D9" t="n">
+        <v>28.53610988037218</v>
+      </c>
+      <c r="E9" t="n">
+        <v>82.89455028799291</v>
+      </c>
+      <c r="F9" t="n">
+        <v>108.7771377935312</v>
+      </c>
+      <c r="G9" t="n">
+        <v>16.07665042091272</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>53</v>
+        <v>45</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1660514160824168</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8758838208671624</v>
+      </c>
+      <c r="D10" t="n">
+        <v>23.96145610278372</v>
+      </c>
+      <c r="E10" t="n">
+        <v>88.77141327623126</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100.4544967880086</v>
+      </c>
+      <c r="G10" t="n">
+        <v>21.63222698072805</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>47</v>
+        <v>39</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1730335239697859</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8412769322230743</v>
+      </c>
+      <c r="D11" t="n">
+        <v>32.61223431829963</v>
+      </c>
+      <c r="E11" t="n">
+        <v>88.39450492483152</v>
+      </c>
+      <c r="F11" t="n">
+        <v>110.4271643338517</v>
+      </c>
+      <c r="G11" t="n">
+        <v>17.23224468636599</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.1782651100834997</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8283141040512229</v>
+      </c>
+      <c r="D12" t="n">
+        <v>31.91084462982273</v>
+      </c>
+      <c r="E12" t="n">
+        <v>86.67987486965589</v>
+      </c>
+      <c r="F12" t="n">
+        <v>113.633472367049</v>
+      </c>
+      <c r="G12" t="n">
+        <v>21.82012513034411</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>34</v>
+        <v>44</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.169620890396565</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8989907191017944</v>
+      </c>
+      <c r="D13" t="n">
+        <v>29.5310119695321</v>
+      </c>
+      <c r="E13" t="n">
+        <v>90.93362350380849</v>
+      </c>
+      <c r="F13" t="n">
+        <v>109.9646354733406</v>
+      </c>
+      <c r="G13" t="n">
+        <v>21.84058759521219</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.173251042036921</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8441967220738036</v>
+      </c>
+      <c r="D14" t="n">
+        <v>31.04685890834191</v>
+      </c>
+      <c r="E14" t="n">
+        <v>86.90061791967044</v>
+      </c>
+      <c r="F14" t="n">
+        <v>112.711122554068</v>
+      </c>
+      <c r="G14" t="n">
+        <v>20.78836251287333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1663780661615406</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8809718603253573</v>
+      </c>
+      <c r="D15" t="n">
+        <v>33.56353839245622</v>
+      </c>
+      <c r="E15" t="n">
+        <v>86.79928154467893</v>
+      </c>
+      <c r="F15" t="n">
+        <v>115.3632689717108</v>
+      </c>
+      <c r="G15" t="n">
+        <v>20.40817242927706</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1658502492317681</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8808121402609804</v>
+      </c>
+      <c r="D16" t="n">
+        <v>27.73424796747967</v>
+      </c>
+      <c r="E16" t="n">
+        <v>88.2428861788618</v>
+      </c>
+      <c r="F16" t="n">
+        <v>107.8272357723577</v>
+      </c>
+      <c r="G16" t="n">
+        <v>13.59146341463415</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>32</v>
+        <v>74</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.1685206107547761</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8781752109968816</v>
+      </c>
+      <c r="D17" t="n">
+        <v>28.72805507745267</v>
+      </c>
+      <c r="E17" t="n">
+        <v>90.86617900172116</v>
+      </c>
+      <c r="F17" t="n">
+        <v>122.1652323580034</v>
+      </c>
+      <c r="G17" t="n">
+        <v>11.87177280550775</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>37</v>
+        <v>74</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.1834506928529379</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8466548770919182</v>
+      </c>
+      <c r="D18" t="n">
+        <v>31.6819801980198</v>
+      </c>
+      <c r="E18" t="n">
+        <v>86.70653465346534</v>
+      </c>
+      <c r="F18" t="n">
+        <v>120.8641584158416</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11.74178217821782</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30</v>
+        <v>78</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1767236012286736</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.878897824486619</v>
+      </c>
+      <c r="D19" t="n">
+        <v>30.18401639344262</v>
+      </c>
+      <c r="E19" t="n">
+        <v>89.72868852459017</v>
+      </c>
+      <c r="F19" t="n">
+        <v>117.5139344262295</v>
+      </c>
+      <c r="G19" t="n">
+        <v>12.0405737704918</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>32</v>
+        <v>70</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.1662980987940527</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.941033328756802</v>
+      </c>
+      <c r="D20" t="n">
+        <v>32.89067974772249</v>
+      </c>
+      <c r="E20" t="n">
+        <v>88.54204625087597</v>
+      </c>
+      <c r="F20" t="n">
+        <v>123.177295024527</v>
+      </c>
+      <c r="G20" t="n">
+        <v>13.89453398738612</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>27</v>
+        <v>71</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.164824341152918</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8927277137444772</v>
+      </c>
+      <c r="D21" t="n">
+        <v>27.06660666066607</v>
+      </c>
+      <c r="E21" t="n">
+        <v>86.95679567956796</v>
+      </c>
+      <c r="F21" t="n">
+        <v>118.3532853285328</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10.76237623762376</v>
       </c>
     </row>
   </sheetData>

--- a/Hannes/output.xlsx
+++ b/Hannes/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,162 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7124954798135783</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8303002996236928</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.84845324991311</v>
+      </c>
+      <c r="E2" t="n">
+        <v>101.3851233924227</v>
+      </c>
+      <c r="F2" t="n">
+        <v>130.4539450816823</v>
+      </c>
+      <c r="G2" t="n">
+        <v>11.52276677094195</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>115</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.9837726484024811</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8012478482106261</v>
+      </c>
+      <c r="D3" t="n">
+        <v>66.17558651026393</v>
+      </c>
+      <c r="E3" t="n">
+        <v>84.20142961876833</v>
+      </c>
+      <c r="F3" t="n">
+        <v>122.3537390029326</v>
+      </c>
+      <c r="G3" t="n">
+        <v>54.93896627565982</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.21880543181892</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8429236558553105</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.94578568403219</v>
+      </c>
+      <c r="E4" t="n">
+        <v>77.96230410842863</v>
+      </c>
+      <c r="F4" t="n">
+        <v>107.8818297331639</v>
+      </c>
+      <c r="G4" t="n">
+        <v>25.09021601016519</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1910938354123028</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8449692934543999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>35.95016987542469</v>
+      </c>
+      <c r="E5" t="n">
+        <v>99.78765571913929</v>
+      </c>
+      <c r="F5" t="n">
+        <v>143.3793884484711</v>
+      </c>
+      <c r="G5" t="n">
+        <v>31.09513023782559</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>27</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.9047619047619049</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7680137844611529</v>
+      </c>
+      <c r="D6" t="n">
+        <v>44.87061143984221</v>
+      </c>
+      <c r="E6" t="n">
+        <v>93.75936883629191</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100.3337278106509</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.54714003944773</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>40</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.7244598465883143</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.7778398580561909</v>
+      </c>
+      <c r="D7" t="n">
+        <v>51.39471365638767</v>
+      </c>
+      <c r="E7" t="n">
+        <v>113.470778267254</v>
+      </c>
+      <c r="F7" t="n">
+        <v>133.1204111600588</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17.02790014684288</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
